--- a/Excel/Students.xlsx
+++ b/Excel/Students.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\Arbeit Bim+\Node js RESTful\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC43D1D3-7194-40E8-A686-5FE2B9591538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90191A3-BB4F-481B-8D2D-A50363319E32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="2160" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6870" yWindow="2190" windowWidth="17280" windowHeight="9030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Member 1</t>
   </si>
@@ -39,25 +39,34 @@
     <t>Member 3</t>
   </si>
   <si>
-    <t>probemail2@abv.bg</t>
-  </si>
-  <si>
-    <t>probemail3@abv.bg</t>
-  </si>
-  <si>
     <t>Gruppe_01</t>
   </si>
   <si>
     <t>Gruppe_02</t>
   </si>
   <si>
-    <t>probemail4@abv.bg</t>
-  </si>
-  <si>
-    <t>probemail5@abv.bg</t>
-  </si>
-  <si>
-    <t>probemail6@abv.bg</t>
+    <t>Gruppe_03</t>
+  </si>
+  <si>
+    <t>testemailbimplus1@gmail.com</t>
+  </si>
+  <si>
+    <t>testemailbimplus2@gmail.com</t>
+  </si>
+  <si>
+    <t>testemailbimplus3@gmail.com</t>
+  </si>
+  <si>
+    <t>testemailbimplus4@gmail.com</t>
+  </si>
+  <si>
+    <t>testemailbimplus5@gmail.com</t>
+  </si>
+  <si>
+    <t>testemailbimplus6@gmail.com</t>
+  </si>
+  <si>
+    <t>testemailbimplus7@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -97,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -121,16 +130,59 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -142,10 +194,54 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -158,52 +254,18 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -213,10 +275,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -226,7 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -244,31 +306,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -555,81 +626,80 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="A2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="3"/>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>5</v>
+      <c r="D3" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="8"/>
+      <c r="A4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="12"/>
       <c r="E4" s="2"/>
       <c r="F4" s="5"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{93995CD5-9FB5-49D2-9B4A-525CB24009D9}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{E18A666E-6E28-44B4-9507-DD530150FCC3}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{682BAE1A-02DA-4E94-8AC4-E3AFB0CF7B17}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{5A3B4C10-5610-481D-9E2F-3762DFC64469}"/>
-    <hyperlink ref="D3" r:id="rId5" xr:uid="{B7E6EA24-5734-45E1-BF40-8F1FA4D51E33}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>